--- a/biology/Zoologie/Mycetophila_morio/Mycetophila_morio.xlsx
+++ b/biology/Zoologie/Mycetophila_morio/Mycetophila_morio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mycetophila morio est une espèce fossile d'insectes diptères de la famille des Mycetophilidae (littéralement « amis des champignons »).
 </t>
@@ -511,20 +523,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Mycetophila morio est décrite en 1856 par la naturaliste suisse Oswald Heer (1809-1883)[1],[2].
-L'espèce Mycetophila dubia est décrite la même année par le paléontologue prussien Christian Gottfried Giebel (1820-1881)[1],[2].
-Renommages
-L'espèce Mycetophila morio est renommée en 1907 par l'entomologiste autrichien Anton Handlirsch (1865-1935)[3] et confirmée en 1994 par l'entomologiste américain Evenhuis (1952-)[4],[2].
-Citations
-L'espèce Mycetophila morio est citée en 1909 par l'entomologiste américain Oskar Augustus Johannsen (en) (1870-1961)[5], en 1937 par le paléontologue français Nicolas Théobald (1903-1981)[6],[2].
-Fossiles
-Selon Paleobiology Database en 2023, le nombre de fossiles référencés est de trois[2] :
-de l'Oligocène de France, d'Aix-en-Provence, dans les Bouches-du-Rhône, de la collection Coquand et du MNHNP, décrit en 1915 par le paléontologue et entomologiste belge Fernand Meunier[7], et de la Murchison collection, décrit en 1829 par l'entomologiste britannique John Curtis (1791-1862)[8],[2].
-Ceci atteste la présence de l'espèce Mycetophila morio au Chattien de l'Oligocène supérieur, soit de 28,1 à 23,03 Ma avant notre ère[2].
-Étymologie
-L'épithète spécifique morio signifie en latin « morte », et dubia signifie « douteuse ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Mycetophila morio est décrite en 1856 par la naturaliste suisse Oswald Heer (1809-1883),.
+L'espèce Mycetophila dubia est décrite la même année par le paléontologue prussien Christian Gottfried Giebel (1820-1881),.
 </t>
         </is>
       </c>
@@ -550,17 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Diagnose de Nicolas Théobald en 1937[6],[note 1] : 
-« Ressemble à M. cf. pallipes, mais est de taille inférieure, le corps n'ayant que 4 mm de longueur (4,7 mm dans M. cf. pallipes). La nervation des ailes est semblable. Les antennes sont identiques ; les ailes dépassent le corps. Les pattes sont de même armées de poils et de cils. L'abdomen n'a que six segments. Il s'agit peut-être du ♂ de M. cf pallipes.
-Échantillon 13, École des Mines, Paris.
-D'autres Mycetophilidae non déterminés existent dans les collections du Muséum de Paris, en particulier Am30-36. »[9].
-Dimensions
-La longueur du corps de l'insecte est de 4 mm[9].
+          <t>Renommages</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Mycetophila morio est renommée en 1907 par l'entomologiste autrichien Anton Handlirsch (1865-1935) et confirmée en 1994 par l'entomologiste américain Evenhuis (1952-),.
 </t>
         </is>
       </c>
@@ -586,13 +591,201 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Citations</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Mycetophila morio est citée en 1909 par l'entomologiste américain Oskar Augustus Johannsen (en) (1870-1961), en 1937 par le paléontologue français Nicolas Théobald (1903-1981),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mycetophila_morio</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mycetophila_morio</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, le nombre de fossiles référencés est de trois :
+de l'Oligocène de France, d'Aix-en-Provence, dans les Bouches-du-Rhône, de la collection Coquand et du MNHNP, décrit en 1915 par le paléontologue et entomologiste belge Fernand Meunier, et de la Murchison collection, décrit en 1829 par l'entomologiste britannique John Curtis (1791-1862),.
+Ceci atteste la présence de l'espèce Mycetophila morio au Chattien de l'Oligocène supérieur, soit de 28,1 à 23,03 Ma avant notre ère.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mycetophila_morio</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mycetophila_morio</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique morio signifie en latin « morte », et dubia signifie « douteuse ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mycetophila_morio</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mycetophila_morio</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diagnose de Nicolas Théobald en 1937,[note 1] : 
+« Ressemble à M. cf. pallipes, mais est de taille inférieure, le corps n'ayant que 4 mm de longueur (4,7 mm dans M. cf. pallipes). La nervation des ailes est semblable. Les antennes sont identiques ; les ailes dépassent le corps. Les pattes sont de même armées de poils et de cils. L'abdomen n'a que six segments. Il s'agit peut-être du ♂ de M. cf pallipes.
+Échantillon 13, École des Mines, Paris.
+D'autres Mycetophilidae non déterminés existent dans les collections du Muséum de Paris, en particulier Am30-36. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mycetophila_morio</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mycetophila_morio</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur du corps de l'insecte est de 4 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Mycetophila_morio</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mycetophila_morio</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">
-« Le genre Mycetophila est un genre cosmopolite, vivant dans les bois, ses larves se nourissent de champignons. »[10].
+« Le genre Mycetophila est un genre cosmopolite, vivant dans les bois, ses larves se nourissent de champignons. ».
 </t>
         </is>
       </c>
